--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Dropbox\pgm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>d</t>
   </si>
@@ -40,15 +38,34 @@
   <si>
     <t>Baseline</t>
   </si>
+  <si>
+    <t>Bayesian</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +88,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,26 +168,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -217,8 +218,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11111111111111116"/>
-                  <c:y val="-0.12962962962962962"/>
+                  <c:x val="-0.111111111111111"/>
+                  <c:y val="-0.12962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -307,64 +308,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,10 +377,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.92800000000000005</c:v>
+                  <c:v>0.928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1240000000000001</c:v>
+                  <c:v>1.124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.351</c:v>
@@ -394,46 +395,46 @@
                   <c:v>1.077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82399999999999995</c:v>
+                  <c:v>0.824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>0.813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83399999999999996</c:v>
+                  <c:v>0.834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.826</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70199999999999996</c:v>
+                  <c:v>0.702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68700000000000006</c:v>
+                  <c:v>0.687</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53700000000000003</c:v>
+                  <c:v>0.537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52400000000000002</c:v>
+                  <c:v>0.524</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52200000000000002</c:v>
+                  <c:v>0.522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52700000000000002</c:v>
+                  <c:v>0.527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,14 +449,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237289264"/>
-        <c:axId val="238453752"/>
+        <c:axId val="2107971048"/>
+        <c:axId val="2107977800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237289264"/>
+        <c:axId val="2107971048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -499,26 +500,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -557,12 +538,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238453752"/>
+        <c:crossAx val="2107977800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238453752"/>
+        <c:axId val="2107977800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -604,26 +585,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -662,7 +623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237289264"/>
+        <c:crossAx val="2107971048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,26 +723,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -790,15 +731,906 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13178937007874017"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.7913210848643919"/>
-          <c:h val="0.62271617089530473"/>
+          <c:x val="0.13178937007874"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.791321084864392"/>
+          <c:h val="0.622716170895305"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.335845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.292248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.286891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.335845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.292248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.286891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.335845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.292248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.286891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -842,8 +1674,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6666666666666666E-2"/>
-                  <c:y val="0.10185185185185176"/>
+                  <c:x val="-0.0691667322834646"/>
+                  <c:y val="0.0424460123177672"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -864,11 +1696,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -932,34 +1759,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,22 +1798,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
+                  <c:v>0.211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>0.209</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -995,10 +1822,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,8 +1875,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11111111111111116"/>
-                  <c:y val="9.2592592592592504E-2"/>
+                  <c:x val="-0.213611023622047"/>
+                  <c:y val="-0.0856252436267249"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1070,11 +1897,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1138,34 +1960,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1999,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.45</c:v>
@@ -1192,7 +2014,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.53</c:v>
@@ -1204,7 +2026,138 @@
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bayesian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0475000000000001"/>
+                  <c:y val="-0.0594059405940594"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.335845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.292248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.286891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,14 +2172,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238458064"/>
-        <c:axId val="238453360"/>
+        <c:axId val="2118631592"/>
+        <c:axId val="2116490008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238458064"/>
+        <c:axId val="2118631592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
+          <c:max val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1265,26 +2218,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1323,12 +2256,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238453360"/>
+        <c:crossAx val="2116490008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238453360"/>
+        <c:axId val="2116490008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,26 +2302,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1427,7 +2340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238458064"/>
+        <c:crossAx val="2118631592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2698,7 +3611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2733,7 +3646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2910,7 +3823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2920,13 +3833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -2936,6 +3849,9 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2960,7 +3876,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11">
         <f>B10+1</f>
         <v>2</v>
@@ -2971,6 +3887,9 @@
       <c r="D11">
         <v>0.21199999999999999</v>
       </c>
+      <c r="E11">
+        <v>0.335845</v>
+      </c>
       <c r="F11">
         <f>F10+1</f>
         <v>2</v>
@@ -2979,7 +3898,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12">
         <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>3</v>
@@ -2990,6 +3909,9 @@
       <c r="D12">
         <v>0.21199999999999999</v>
       </c>
+      <c r="E12">
+        <v>0.29108600000000001</v>
+      </c>
       <c r="F12">
         <f t="shared" ref="F12:F29" si="1">F11+1</f>
         <v>3</v>
@@ -2998,7 +3920,7 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3009,6 +3931,9 @@
       <c r="D13">
         <v>0.21199999999999999</v>
       </c>
+      <c r="E13">
+        <v>0.30251499999999998</v>
+      </c>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3017,7 +3942,7 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3028,6 +3953,9 @@
       <c r="D14">
         <v>0.21099999999999999</v>
       </c>
+      <c r="E14">
+        <v>0.28957500000000003</v>
+      </c>
       <c r="F14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3036,7 +3964,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3047,6 +3975,9 @@
       <c r="D15">
         <v>0.20899999999999999</v>
       </c>
+      <c r="E15">
+        <v>0.29224800000000001</v>
+      </c>
       <c r="F15">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3055,7 +3986,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3066,6 +3997,9 @@
       <c r="D16">
         <v>0.21</v>
       </c>
+      <c r="E16">
+        <v>0.29837599999999997</v>
+      </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3074,7 +4008,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3085,6 +4019,9 @@
       <c r="D17">
         <v>0.21</v>
       </c>
+      <c r="E17">
+        <v>0.29299700000000001</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3093,7 +4030,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3104,6 +4041,9 @@
       <c r="D18">
         <v>0.21199999999999999</v>
       </c>
+      <c r="E18">
+        <v>0.31101000000000001</v>
+      </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3112,7 +4052,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3123,6 +4063,9 @@
       <c r="D19">
         <v>0.21299999999999999</v>
       </c>
+      <c r="E19">
+        <v>0.28689100000000001</v>
+      </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3131,7 +4074,7 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="F20">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3140,7 +4083,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="F21">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3149,7 +4092,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="F22">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3158,7 +4101,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="F23">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3167,7 +4110,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="F24">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3176,7 +4119,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="F25">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3185,7 +4128,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="F26">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3194,7 +4137,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="F27">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3203,7 +4146,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="F28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3212,7 +4155,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="F29">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3223,6 +4166,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Documents\GitHub\pgm-project\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="midway" sheetId="1" r:id="rId1"/>
+    <sheet name="final movielens" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -168,6 +174,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -180,7 +206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$9</c:f>
+              <c:f>midway!$I$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,8 +244,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.111111111111111"/>
-                  <c:y val="-0.12962962962963"/>
+                  <c:x val="-2.8135356470999066E-2"/>
+                  <c:y val="-0.12037037037037036"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -303,138 +329,318 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$10:$F$29</c:f>
+              <c:f>midway!$H$10:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$G$29</c:f>
+              <c:f>midway!$I$10:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.928</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.124</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.351</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.157</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.077</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.824</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.813</c:v>
+                  <c:v>0.26400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.834</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.826</c:v>
+                  <c:v>0.246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.719</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.702</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.687</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.625</c:v>
+                  <c:v>0.221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.575</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.537</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.524</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.522</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.527</c:v>
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,14 +655,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107971048"/>
-        <c:axId val="2107977800"/>
+        <c:axId val="90347536"/>
+        <c:axId val="90349496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107971048"/>
+        <c:axId val="90347536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -500,6 +706,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -538,15 +764,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107977800"/>
+        <c:crossAx val="90349496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107977800"/>
+        <c:axId val="90349496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -585,6 +811,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -623,7 +869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107971048"/>
+        <c:crossAx val="90347536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -732,9 +978,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13178937007874"/>
-          <c:y val="0.171712962962963"/>
-          <c:w val="0.791321084864392"/>
-          <c:h val="0.622716170895305"/>
+          <c:y val="0.17171296296296301"/>
+          <c:w val="0.79132108486439201"/>
+          <c:h val="0.62271617089530495"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -745,7 +991,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$9</c:f>
+              <c:f>midway!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -765,66 +1011,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:f>midway!$D$10:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.209</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -833,10 +1079,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +1094,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>midway!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -868,79 +1114,49 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:f>midway!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -951,7 +1167,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>midway!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -962,46 +1178,46 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:f>midway!$E$10:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1009,28 +1225,28 @@
                   <c:v>0.335845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.291086</c:v>
+                  <c:v>0.29108600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.302515</c:v>
+                  <c:v>0.30251499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.289575</c:v>
+                  <c:v>0.28957500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.292248</c:v>
+                  <c:v>0.29224800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.298376</c:v>
+                  <c:v>0.29837599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.292997</c:v>
+                  <c:v>0.29299700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31101</c:v>
+                  <c:v>0.31101000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.286891</c:v>
+                  <c:v>0.28689100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1258,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$9</c:f>
+              <c:f>midway!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,66 +1278,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:f>midway!$D$10:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.209</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -1130,10 +1346,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1361,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>midway!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1165,79 +1381,49 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:f>midway!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1248,7 +1434,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>midway!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1259,46 +1445,46 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:f>midway!$E$10:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1306,28 +1492,28 @@
                   <c:v>0.335845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.291086</c:v>
+                  <c:v>0.29108600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.302515</c:v>
+                  <c:v>0.30251499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.289575</c:v>
+                  <c:v>0.28957500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.292248</c:v>
+                  <c:v>0.29224800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.298376</c:v>
+                  <c:v>0.29837599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.292997</c:v>
+                  <c:v>0.29299700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31101</c:v>
+                  <c:v>0.31101000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.286891</c:v>
+                  <c:v>0.28689100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,7 +1525,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$9</c:f>
+              <c:f>midway!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1359,66 +1545,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:f>midway!$D$10:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.209</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -1427,10 +1613,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1628,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>midway!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1462,79 +1648,49 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:f>midway!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1545,7 +1701,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>midway!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1556,46 +1712,46 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:f>midway!$E$10:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1603,28 +1759,28 @@
                   <c:v>0.335845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.291086</c:v>
+                  <c:v>0.29108600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.302515</c:v>
+                  <c:v>0.30251499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.289575</c:v>
+                  <c:v>0.28957500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.292248</c:v>
+                  <c:v>0.29224800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.298376</c:v>
+                  <c:v>0.29837599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.292997</c:v>
+                  <c:v>0.29299700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31101</c:v>
+                  <c:v>0.31101000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.286891</c:v>
+                  <c:v>0.28689100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,7 +1792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$9</c:f>
+              <c:f>midway!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1674,8 +1830,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0691667322834646"/>
-                  <c:y val="0.0424460123177672"/>
+                  <c:x val="-6.9166732283464594E-2"/>
+                  <c:y val="4.24460123177672E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1696,6 +1852,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1754,66 +1915,66 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$19</c:f>
+              <c:f>midway!$D$10:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.209</c:v>
+                  <c:v>0.20899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.21</c:v>
@@ -1822,10 +1983,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,7 +1998,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>midway!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1875,8 +2036,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.213611023622047"/>
-                  <c:y val="-0.0856252436267249"/>
+                  <c:x val="-0.21361102362204701"/>
+                  <c:y val="-8.5625243626724898E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1897,6 +2058,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1955,79 +2121,49 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$19</c:f>
+              <c:f>midway!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2038,7 +2174,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>midway!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2052,8 +2188,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0475000000000001"/>
-                  <c:y val="-0.0594059405940594"/>
+                  <c:x val="-4.7500000000000098E-2"/>
+                  <c:y val="-5.9405940594059403E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2062,7 +2198,19 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2086,49 +2234,54 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$19</c:f>
+              <c:f>midway!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$19</c:f>
+              <c:f>midway!$E$10:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2136,28 +2289,28 @@
                   <c:v>0.335845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.291086</c:v>
+                  <c:v>0.29108600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.302515</c:v>
+                  <c:v>0.30251499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.289575</c:v>
+                  <c:v>0.28957500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.292248</c:v>
+                  <c:v>0.29224800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.298376</c:v>
+                  <c:v>0.29837599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.292997</c:v>
+                  <c:v>0.29299700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31101</c:v>
+                  <c:v>0.31101000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.286891</c:v>
+                  <c:v>0.28689100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,14 +2325,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118631592"/>
-        <c:axId val="2116490008"/>
+        <c:axId val="90350280"/>
+        <c:axId val="90353416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118631592"/>
+        <c:axId val="90350280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2256,12 +2409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116490008"/>
+        <c:crossAx val="90353416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116490008"/>
+        <c:axId val="90353416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118631592"/>
+        <c:crossAx val="90350280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2390,46 +2543,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2985,536 +3098,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3535,16 +3132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3823,7 +3420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3831,15 +3428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:G29"/>
+  <dimension ref="B9:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -3852,316 +3459,556 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="D10">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="I10">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>0.45</v>
-      </c>
       <c r="D11">
         <v>0.21199999999999999</v>
       </c>
       <c r="E11">
         <v>0.335845</v>
       </c>
-      <c r="F11">
-        <f>F10+1</f>
+      <c r="H11">
+        <f>H10+1</f>
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>1.1240000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="I11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>0.47</v>
-      </c>
       <c r="D12">
         <v>0.21199999999999999</v>
       </c>
       <c r="E12">
         <v>0.29108600000000001</v>
       </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F29" si="1">F11+1</f>
+      <c r="H12">
+        <f>H11+1</f>
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>1.351</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="I12">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>0.47</v>
-      </c>
       <c r="D13">
         <v>0.21199999999999999</v>
       </c>
       <c r="E13">
         <v>0.30251499999999998</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f>H12+1</f>
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>1.157</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="I13">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>0.44</v>
-      </c>
       <c r="D14">
         <v>0.21099999999999999</v>
       </c>
       <c r="E14">
         <v>0.28957500000000003</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f>H13+1</f>
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="I14">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="D15">
         <v>0.20899999999999999</v>
       </c>
       <c r="E15">
         <v>0.29224800000000001</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f>H14+1</f>
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>1.077</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="I15">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>0.53</v>
-      </c>
       <c r="D16">
         <v>0.21</v>
       </c>
       <c r="E16">
         <v>0.29837599999999997</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f>H15+1</f>
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="I16">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>0.53</v>
-      </c>
       <c r="D17">
         <v>0.21</v>
       </c>
       <c r="E17">
         <v>0.29299700000000001</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f>H16+1</f>
         <v>8</v>
       </c>
-      <c r="G17">
-        <v>0.81299999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="I17">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>0.53</v>
-      </c>
       <c r="D18">
         <v>0.21199999999999999</v>
       </c>
       <c r="E18">
         <v>0.31101000000000001</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f>H17+1</f>
         <v>9</v>
       </c>
-      <c r="G18">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="I18">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="D19">
         <v>0.21299999999999999</v>
       </c>
       <c r="E19">
         <v>0.28689100000000001</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f>H18+1</f>
         <v>10</v>
       </c>
-      <c r="G19">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="F20">
-        <f t="shared" si="1"/>
+      <c r="I19">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>H19+1</f>
         <v>11</v>
       </c>
-      <c r="G20">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="F21">
-        <f t="shared" si="1"/>
+      <c r="I20">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>H20+1</f>
         <v>12</v>
       </c>
-      <c r="G21">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="F22">
-        <f t="shared" si="1"/>
+      <c r="I21">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>H21+1</f>
         <v>13</v>
       </c>
-      <c r="G22">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="F23">
-        <f t="shared" si="1"/>
+      <c r="I22">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>H22+1</f>
         <v>14</v>
       </c>
-      <c r="G23">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="F24">
-        <f t="shared" si="1"/>
+      <c r="I23">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f>H23+1</f>
         <v>15</v>
       </c>
-      <c r="G24">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="F25">
-        <f t="shared" si="1"/>
+      <c r="I24">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>H24+1</f>
         <v>16</v>
       </c>
-      <c r="G25">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="F26">
-        <f t="shared" si="1"/>
+      <c r="I25">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>H25+1</f>
         <v>17</v>
       </c>
-      <c r="G26">
-        <v>0.53700000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="F27">
-        <f t="shared" si="1"/>
+      <c r="I26">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f>H26+1</f>
         <v>18</v>
       </c>
-      <c r="G27">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="F28">
-        <f t="shared" si="1"/>
+      <c r="I27">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>H27+1</f>
         <v>19</v>
       </c>
-      <c r="G28">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="F29">
-        <f t="shared" si="1"/>
+      <c r="I28">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>H28+1</f>
         <v>20</v>
       </c>
-      <c r="G29">
-        <v>0.52700000000000002</v>
+      <c r="I29">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>H29+1</f>
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>H30+1</f>
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f>H31+1</f>
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>H32+1</f>
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f>H33+1</f>
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f>H34+1</f>
+        <v>26</v>
+      </c>
+      <c r="I35">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f>H35+1</f>
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f>H36+1</f>
+        <v>28</v>
+      </c>
+      <c r="I37">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f>H37+1</f>
+        <v>29</v>
+      </c>
+      <c r="I38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f>H38+1</f>
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f>H39+1</f>
+        <v>31</v>
+      </c>
+      <c r="I40">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f>H40+1</f>
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f>H41+1</f>
+        <v>33</v>
+      </c>
+      <c r="I42">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f>H42+1</f>
+        <v>34</v>
+      </c>
+      <c r="I43">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f>H43+1</f>
+        <v>35</v>
+      </c>
+      <c r="I44">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>H44+1</f>
+        <v>36</v>
+      </c>
+      <c r="I45">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f>H45+1</f>
+        <v>37</v>
+      </c>
+      <c r="I46">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f>H46+1</f>
+        <v>38</v>
+      </c>
+      <c r="I47">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f>H47+1</f>
+        <v>39</v>
+      </c>
+      <c r="I48">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>H48+1</f>
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f>H49+1</f>
+        <v>41</v>
+      </c>
+      <c r="I50">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f>H50+1</f>
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f>H51+1</f>
+        <v>43</v>
+      </c>
+      <c r="I52">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f>H52+1</f>
+        <v>44</v>
+      </c>
+      <c r="I53">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f>H53+1</f>
+        <v>45</v>
+      </c>
+      <c r="I54">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f>H54+1</f>
+        <v>46</v>
+      </c>
+      <c r="I55">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f>H55+1</f>
+        <v>47</v>
+      </c>
+      <c r="I56">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f>H56+1</f>
+        <v>48</v>
+      </c>
+      <c r="I57">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>H57+1</f>
+        <v>49</v>
+      </c>
+      <c r="I58">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f>H58+1</f>
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>0.19500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4174,4 +4021,18 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="midway" sheetId="1" r:id="rId1"/>
-    <sheet name="final movielens" sheetId="2" r:id="rId2"/>
+    <sheet name="synthetic" sheetId="2" r:id="rId2"/>
+    <sheet name="gene" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>d</t>
   </si>
@@ -47,11 +48,131 @@
   <si>
     <t>Bayesian</t>
   </si>
+  <si>
+    <t xml:space="preserve">synthetic </t>
+  </si>
+  <si>
+    <t>d=10</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>not collective</t>
+  </si>
+  <si>
+    <t>collective w/o features</t>
+  </si>
+  <si>
+    <t>not collective w/o features</t>
+  </si>
+  <si>
+    <t>ground truth</t>
+  </si>
+  <si>
+    <t>theoretical best = .7616</t>
+  </si>
+  <si>
+    <t>sigma=.5</t>
+  </si>
+  <si>
+    <t>sigma=1</t>
+  </si>
+  <si>
+    <t>theoretical best = 1.0029</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.292288</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.237096</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.189964</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.151505</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.121475</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.098896</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.082389</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.070530</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.062075</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.056051</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.051743</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.048639</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.046385</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.044731</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.043504</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.042583</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.041882</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.041341</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.040916</t>
+  </si>
+  <si>
+    <t>RMSE of R12 without features = 1.040578</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>d=5</t>
+  </si>
+  <si>
+    <t>C: R01 Acc</t>
+  </si>
+  <si>
+    <t>C: R00 RMSE</t>
+  </si>
+  <si>
+    <t>C: R11 RMSE</t>
+  </si>
+  <si>
+    <t>NC: R01 Acc</t>
+  </si>
+  <si>
+    <t>NC: R00 RMSE</t>
+  </si>
+  <si>
+    <t>NC: R11 RMSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +220,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -655,11 +778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90347536"/>
-        <c:axId val="90349496"/>
+        <c:axId val="304863680"/>
+        <c:axId val="304866424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90347536"/>
+        <c:axId val="304863680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -764,12 +887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90349496"/>
+        <c:crossAx val="304866424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90349496"/>
+        <c:axId val="304866424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.15000000000000002"/>
@@ -869,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90347536"/>
+        <c:crossAx val="304863680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,6 +1280,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19143299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19167000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20394899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22966600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25065199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1424,6 +1574,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19143299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19167000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20394899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22966600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25065199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1691,6 +1868,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19143299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19167000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20394899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22966600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25065199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1827,11 +2031,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9166732283464594E-2"/>
-                  <c:y val="4.24460123177672E-2"/>
+                  <c:x val="-4.8850574712643785E-2"/>
+                  <c:y val="0.1388888888888889"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1839,10 +2043,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:r>
+                    <a:fld id="{C1DD2502-38B5-404C-A0F0-2044F91F5822}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
-                      <a:t>Baseline</a:t>
-                    </a:r>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1855,6 +2061,219 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>midway!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>midway!$D$10:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>midway!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15901325911847225"/>
+                  <c:y val="0.14585629921259841"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Feature-Enriched</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.19862068965517238"/>
+                      <c:h val="0.11104184893554971"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1954,216 +2373,37 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>midway!$D$10:$D$19</c:f>
+              <c:f>midway!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.19143299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.19167000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.193998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.199131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
+                  <c:v>0.20394899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>0.213312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>0.22966600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21</c:v>
+                  <c:v>0.25065199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature-Enriched</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.21361102362204701"/>
-                  <c:y val="-8.5625243626724898E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Feature-Enriched</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$C$10:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                  <c:v>0.291715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2185,17 +2425,29 @@
           </c:tx>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.7500000000000098E-2"/>
-                  <c:y val="-5.9405940594059403E-2"/>
+                  <c:x val="-9.2776673293572004E-2"/>
+                  <c:y val="-7.476635514018691E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Gibbs Sampling</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
@@ -2236,7 +2488,7 @@
             <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2325,11 +2577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90350280"/>
-        <c:axId val="90353416"/>
+        <c:axId val="304866032"/>
+        <c:axId val="304863288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90350280"/>
+        <c:axId val="304866032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2409,12 +2661,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90353416"/>
+        <c:crossAx val="304863288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90353416"/>
+        <c:axId val="304863288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90350280"/>
+        <c:crossAx val="304866032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2542,7 +2794,772 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Synthetic Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.059186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88653999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81830599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80123800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79667600000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79470399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79343200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79246899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.791709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79110999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collective w/o features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0206919999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90793100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84635300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82022300000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81001800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80570299999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80351399999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80213800000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80112300000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80031099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not collective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0076799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84590799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80652900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79991000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79737800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79561899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79424099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79313400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.792238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79151000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not collective w/o features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96964300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.855433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81827899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80965500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80680200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80500300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80350200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80219099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80105300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80007499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ground truth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76160000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409028576"/>
+        <c:axId val="409025440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="409028576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409025440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="409025440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409028576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3098,20 +4115,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3132,16 +4665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3157,6 +4690,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3430,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,6 +5038,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>0.19143299999999999</v>
+      </c>
       <c r="D10">
         <v>0.21299999999999999</v>
       </c>
@@ -3485,6 +5056,9 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>0.19167000000000001</v>
+      </c>
       <c r="D11">
         <v>0.21199999999999999</v>
       </c>
@@ -3492,7 +5066,7 @@
         <v>0.335845</v>
       </c>
       <c r="H11">
-        <f>H10+1</f>
+        <f t="shared" ref="H11:H42" si="0">H10+1</f>
         <v>2</v>
       </c>
       <c r="I11">
@@ -3501,8 +5075,11 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" ref="B12:B19" si="0">B11+1</f>
+        <f t="shared" ref="B12:B19" si="1">B11+1</f>
         <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.193998</v>
       </c>
       <c r="D12">
         <v>0.21199999999999999</v>
@@ -3511,7 +5088,7 @@
         <v>0.29108600000000001</v>
       </c>
       <c r="H12">
-        <f>H11+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I12">
@@ -3520,140 +5097,158 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.199131</v>
+      </c>
+      <c r="D13">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.30251499999999998</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.30251499999999998</v>
-      </c>
-      <c r="H13">
-        <f>H12+1</f>
-        <v>4</v>
-      </c>
       <c r="I13">
         <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.20394899999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.28957500000000003</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.28957500000000003</v>
-      </c>
-      <c r="H14">
-        <f>H13+1</f>
-        <v>5</v>
-      </c>
       <c r="I14">
         <v>0.307</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.213312</v>
+      </c>
+      <c r="D15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.29224800000000001</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E15">
-        <v>0.29224800000000001</v>
-      </c>
-      <c r="H15">
-        <f>H14+1</f>
-        <v>6</v>
-      </c>
       <c r="I15">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.22966600000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.21</v>
+      </c>
+      <c r="E16">
+        <v>0.29837599999999997</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>0.21</v>
-      </c>
-      <c r="E16">
-        <v>0.29837599999999997</v>
-      </c>
-      <c r="H16">
-        <f>H15+1</f>
-        <v>7</v>
-      </c>
       <c r="I16">
         <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.25065199999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.21</v>
+      </c>
+      <c r="E17">
+        <v>0.29299700000000001</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>0.21</v>
-      </c>
-      <c r="E17">
-        <v>0.29299700000000001</v>
-      </c>
-      <c r="H17">
-        <f>H16+1</f>
-        <v>8</v>
-      </c>
       <c r="I17">
         <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0.291715</v>
+      </c>
+      <c r="D18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.31101000000000001</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D18">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.31101000000000001</v>
-      </c>
-      <c r="H18">
-        <f>H17+1</f>
-        <v>9</v>
-      </c>
       <c r="I18">
         <v>0.255</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.28689100000000001</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.28689100000000001</v>
-      </c>
-      <c r="H19">
-        <f>H18+1</f>
-        <v>10</v>
-      </c>
       <c r="I19">
         <v>0.246</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20">
-        <f>H19+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I20">
@@ -3662,7 +5257,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21">
-        <f>H20+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I21">
@@ -3671,7 +5266,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H22">
-        <f>H21+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I22">
@@ -3680,7 +5275,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23">
-        <f>H22+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I23">
@@ -3689,7 +5284,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H24">
-        <f>H23+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I24">
@@ -3698,7 +5293,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H25">
-        <f>H24+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I25">
@@ -3707,7 +5302,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H26">
-        <f>H25+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I26">
@@ -3716,7 +5311,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H27">
-        <f>H26+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I27">
@@ -3725,7 +5320,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H28">
-        <f>H27+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I28">
@@ -3734,7 +5329,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H29">
-        <f>H28+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I29">
@@ -3743,7 +5338,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H30">
-        <f>H29+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I30">
@@ -3752,7 +5347,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H31">
-        <f>H30+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I31">
@@ -3761,7 +5356,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H32">
-        <f>H31+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I32">
@@ -3770,7 +5365,7 @@
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33">
-        <f>H32+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I33">
@@ -3779,7 +5374,7 @@
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34">
-        <f>H33+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I34">
@@ -3788,7 +5383,7 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35">
-        <f>H34+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="I35">
@@ -3797,7 +5392,7 @@
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36">
-        <f>H35+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I36">
@@ -3806,7 +5401,7 @@
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37">
-        <f>H36+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="I37">
@@ -3815,7 +5410,7 @@
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38">
-        <f>H37+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="I38">
@@ -3824,7 +5419,7 @@
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39">
-        <f>H38+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I39">
@@ -3833,7 +5428,7 @@
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40">
-        <f>H39+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="I40">
@@ -3842,7 +5437,7 @@
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41">
-        <f>H40+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I41">
@@ -3851,7 +5446,7 @@
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42">
-        <f>H41+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="I42">
@@ -3860,7 +5455,7 @@
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43">
-        <f>H42+1</f>
+        <f t="shared" ref="H43:H59" si="2">H42+1</f>
         <v>34</v>
       </c>
       <c r="I43">
@@ -3869,7 +5464,7 @@
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44">
-        <f>H43+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I44">
@@ -3878,7 +5473,7 @@
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45">
-        <f>H44+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I45">
@@ -3887,7 +5482,7 @@
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46">
-        <f>H45+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I46">
@@ -3896,7 +5491,7 @@
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47">
-        <f>H46+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="I47">
@@ -3905,7 +5500,7 @@
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48">
-        <f>H47+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I48">
@@ -3914,7 +5509,7 @@
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49">
-        <f>H48+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I49">
@@ -3923,7 +5518,7 @@
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50">
-        <f>H49+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I50">
@@ -3932,7 +5527,7 @@
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51">
-        <f>H50+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I51">
@@ -3941,7 +5536,7 @@
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52">
-        <f>H51+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="I52">
@@ -3950,7 +5545,7 @@
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53">
-        <f>H52+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="I53">
@@ -3959,7 +5554,7 @@
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54">
-        <f>H53+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="I54">
@@ -3968,7 +5563,7 @@
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55">
-        <f>H54+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I55">
@@ -3977,7 +5572,7 @@
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56">
-        <f>H55+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I56">
@@ -3986,7 +5581,7 @@
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57">
-        <f>H56+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="I57">
@@ -3995,7 +5590,7 @@
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58">
-        <f>H57+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="I58">
@@ -4004,7 +5599,7 @@
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59">
-        <f>H58+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I59">
@@ -4025,14 +5620,1154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1.059186</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0206919999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0076799999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.96964300000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="str">
+        <f>RIGHT(I4,8)</f>
+        <v>1.292288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.3070250000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.2922880000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.288605</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.258624</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.88653999999999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.90793100000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.84590799999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.855433</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H43" si="0">RIGHT(I5,8)</f>
+        <v>1.237096</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.260345</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.237096</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.223889</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.1915819999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.81830599999999998</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.84635300000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.80652900000000005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81827899999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>1.189964</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.1964140000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.189964</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.151608</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.139777</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.80123800000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.82022300000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79991000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.80965500000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>1.151505</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.137818</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.151505</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.0980350000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.103332</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.79667600000000005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.81001800000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.79737800000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80680200000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>1.121475</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.0985100000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.121475</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.068419</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.0797509999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.79470399999999997</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.80570299999999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.79561899999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.80500300000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>1.098896</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.072916</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.0988960000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.0530029999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.0653999999999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.79343200000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.80351399999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79424099999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.80350200000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>1.082389</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.057115</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.082389</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.0453779999999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.05697</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.79246899999999998</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.80213800000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.79313400000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.80219099999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>1.070530</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.047725</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.07053</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.041642</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.0520799999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.791709</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.80112300000000003</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.792238</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.80105300000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>1.062075</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.042241</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.0620750000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.0397419999999999</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.049223</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.79110999999999998</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.80031099999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.79151000000000005</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.80007499999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>1.056051</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.0390330000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.0560510000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.0386869999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.0475110000000001</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.79064599999999996</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.79964400000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.79092200000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.79924099999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>1.051743</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.0371220000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.0517430000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.0380180000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.046435</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.79029799999999994</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.79044999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.79853700000000005</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>1.048639</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.0359419999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.0486390000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.037525</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.0457110000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.79005499999999995</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.79866700000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.79008</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.79794900000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.046385</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.035177</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.0463849999999999</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.0371159999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.0451809999999999</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.78990499999999997</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.79833600000000005</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.79746399999999995</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.044731</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.034648</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.0447310000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.0367500000000001</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.0447580000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.78983999999999999</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79810199999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.78959900000000005</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.79707300000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.043504</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.0342560000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.043504</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.0364120000000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.044395</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.78985499999999997</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.79795899999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.78947100000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.79676599999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>1.042583</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.0339469999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.042583</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.0360940000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.0440689999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.78994299999999995</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.797902</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.78940999999999995</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.79653700000000005</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>1.041882</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.0336890000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.041882</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.0357940000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0437639999999999</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.79010100000000005</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.79792600000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.78940999999999995</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.79637899999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>1.041341</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.0334650000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.0413410000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.0355129999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.043477</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.79032400000000003</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.79802600000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.78946700000000003</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.796288</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>1.040916</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.033266</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.040916</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.03525</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.0432030000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.79060900000000001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.79820100000000005</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.78957699999999997</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.79625999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>1.040578</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.033088</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.040578</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.035005</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.0429409999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="G43" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.93840000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.49719999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.67779999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.746</v>
+      </c>
+      <c r="D5">
+        <v>0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.6956</v>
+      </c>
+      <c r="D6">
+        <v>0.2666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.6482</v>
+      </c>
+      <c r="D7">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.1241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.502</v>
+      </c>
+      <c r="C9">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.502</v>
+      </c>
+      <c r="C10">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.1239</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="midway" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -223,7 +223,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -288,7 +288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -390,9 +389,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -778,11 +775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304863680"/>
-        <c:axId val="304866424"/>
+        <c:axId val="307672608"/>
+        <c:axId val="307671040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304863680"/>
+        <c:axId val="307672608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -820,7 +817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -887,12 +883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304866424"/>
+        <c:crossAx val="307671040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304866424"/>
+        <c:axId val="307671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.15000000000000002"/>
@@ -925,7 +921,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -992,7 +987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304863680"/>
+        <c:crossAx val="307672608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,7 +1078,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2060,7 +2054,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2451,9 +2444,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2577,11 +2568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304866032"/>
-        <c:axId val="304863288"/>
+        <c:axId val="307667904"/>
+        <c:axId val="307673784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304866032"/>
+        <c:axId val="307667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2614,7 +2605,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2661,12 +2651,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304863288"/>
+        <c:crossAx val="307673784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304863288"/>
+        <c:axId val="307673784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2688,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2745,7 +2734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304866032"/>
+        <c:crossAx val="307667904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3219,11 +3208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="409028576"/>
-        <c:axId val="409025440"/>
+        <c:axId val="307666728"/>
+        <c:axId val="307671432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="409028576"/>
+        <c:axId val="307666728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,7 +3311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409025440"/>
+        <c:crossAx val="307671432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3330,7 +3319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409025440"/>
+        <c:axId val="307671432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -3438,7 +3427,732 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409028576"/>
+        <c:crossAx val="307666728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Synthetic Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3070250000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.260345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1964140000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.137818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0985100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.072916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.057115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.047725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.042241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0390330000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collective w/o features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2922880000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.237096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.189964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.151505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.121475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0988960000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.082389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0620750000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0560510000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not collective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$N$4:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.288605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.223889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.151608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0980350000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.068419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0530029999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0453779999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.041642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0397419999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0386869999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not collective w/o features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$O$4:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.258624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1915819999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.139777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.103332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0797509999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0653999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0520799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.049223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0475110000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>synthetic!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ground truth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>synthetic!$P$4:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0028999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="307670648"/>
+        <c:axId val="307671824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="307670648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307671824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307671824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307670648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3599,6 +4313,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4116,6 +4870,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4702,16 +5972,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4725,6 +5995,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5622,8 +6924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,7 +7048,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H43" si="0">RIGHT(I5,8)</f>
+        <f t="shared" ref="H5:H23" si="0">RIGHT(I5,8)</f>
         <v>1.237096</v>
       </c>
       <c r="I5" t="s">
@@ -6639,7 +7941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="midway" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>d</t>
   </si>
@@ -142,28 +142,22 @@
     <t>RMSE of R12 without features = 1.040578</t>
   </si>
   <si>
-    <t>gene</t>
-  </si>
-  <si>
     <t>d=5</t>
   </si>
   <si>
-    <t>C: R01 Acc</t>
+    <t>Features</t>
   </si>
   <si>
-    <t>C: R00 RMSE</t>
+    <t>No Features</t>
   </si>
   <si>
-    <t>C: R11 RMSE</t>
+    <t>Gene/Gene RMSE</t>
   </si>
   <si>
-    <t>NC: R01 Acc</t>
+    <t>Gene/Disease Error Rate</t>
   </si>
   <si>
-    <t>NC: R00 RMSE</t>
-  </si>
-  <si>
-    <t>NC: R11 RMSE</t>
+    <t>Disease/Disease RMSE</t>
   </si>
 </sst>
 </file>
@@ -775,11 +769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307672608"/>
-        <c:axId val="307671040"/>
+        <c:axId val="117297616"/>
+        <c:axId val="280496576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307672608"/>
+        <c:axId val="117297616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -883,12 +877,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307671040"/>
+        <c:crossAx val="280496576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307671040"/>
+        <c:axId val="280496576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.15000000000000002"/>
@@ -987,7 +981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307672608"/>
+        <c:crossAx val="117297616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2568,11 +2562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307667904"/>
-        <c:axId val="307673784"/>
+        <c:axId val="280498536"/>
+        <c:axId val="280498144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307667904"/>
+        <c:axId val="280498536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2651,12 +2645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307673784"/>
+        <c:crossAx val="280498144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307673784"/>
+        <c:axId val="280498144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307667904"/>
+        <c:crossAx val="280498536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3208,11 +3202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307666728"/>
-        <c:axId val="307671432"/>
+        <c:axId val="280491872"/>
+        <c:axId val="280497360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307666728"/>
+        <c:axId val="280491872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307671432"/>
+        <c:crossAx val="280497360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3319,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307671432"/>
+        <c:axId val="280497360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000011"/>
@@ -3427,7 +3421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307666728"/>
+        <c:crossAx val="280491872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3933,11 +3927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307670648"/>
-        <c:axId val="307671824"/>
+        <c:axId val="280495400"/>
+        <c:axId val="280492264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307670648"/>
+        <c:axId val="280495400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307671824"/>
+        <c:crossAx val="280492264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4044,7 +4038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307671824"/>
+        <c:axId val="280492264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -4152,7 +4146,1530 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307670648"/>
+        <c:crossAx val="280495400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gene-Disease Error </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50940000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50679999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51950000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52829999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="338286912"/>
+        <c:axId val="338283776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338286912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338283776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338283776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Classification Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338286912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gene-Gene Error </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.85389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53759999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.89590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79520000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="336333256"/>
+        <c:axId val="336335608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="336333256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336335608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336335608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336333256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Disease-Disease</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.93840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gene!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="336333648"/>
+        <c:axId val="336334824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="336333648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336334824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336334824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336333648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4353,6 +5870,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5386,6 +7023,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6027,6 +9212,105 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6924,8 +10208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7939,137 +11223,219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="E4">
         <v>0.85389999999999999</v>
       </c>
-      <c r="D3">
+      <c r="F4">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="H4">
         <v>0.93840000000000001</v>
       </c>
+      <c r="I4">
+        <v>1.0869</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.50940000000000007</v>
+      </c>
+      <c r="E5">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.93210000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.50679999999999992</v>
+      </c>
+      <c r="E6">
+        <v>0.746</v>
+      </c>
+      <c r="F6">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.6956</v>
+      </c>
+      <c r="F7">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.2666</v>
+      </c>
+      <c r="I7">
+        <v>0.6351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.49850000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.6482</v>
+      </c>
+      <c r="F8">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I8">
         <v>0.49719999999999998</v>
       </c>
-      <c r="C4">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="D4">
-        <v>0.67779999999999996</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.50080000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.746</v>
-      </c>
-      <c r="D5">
-        <v>0.44769999999999999</v>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.1241</v>
+      </c>
+      <c r="I9">
+        <v>0.37140000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.49769999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.6956</v>
-      </c>
-      <c r="D6">
-        <v>0.2666</v>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.498</v>
+      </c>
+      <c r="C10">
+        <v>0.51950000000000007</v>
+      </c>
+      <c r="E10">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.26490000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.50149999999999995</v>
-      </c>
-      <c r="C7">
-        <v>0.6482</v>
-      </c>
-      <c r="D7">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.1241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0.502</v>
-      </c>
-      <c r="C9">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="D9">
-        <v>0.11219999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.502</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.498</v>
+      </c>
+      <c r="C11">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="E11">
         <v>0.53759999999999997</v>
       </c>
-      <c r="D10">
+      <c r="F11">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="H11">
         <v>0.1239</v>
+      </c>
+      <c r="I11">
+        <v>0.18640000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Documents\GitHub\pgm-project\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
-    <sheet name="midway" sheetId="1" r:id="rId1"/>
-    <sheet name="synthetic" sheetId="2" r:id="rId2"/>
+    <sheet name="synthetic" sheetId="2" r:id="rId1"/>
+    <sheet name="movielens" sheetId="1" r:id="rId2"/>
     <sheet name="gene" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>rmse</t>
   </si>
   <si>
     <t>t</t>
@@ -44,9 +36,6 @@
   </si>
   <si>
     <t>Baseline</t>
-  </si>
-  <si>
-    <t>Bayesian</t>
   </si>
   <si>
     <t xml:space="preserve">synthetic </t>
@@ -159,6 +148,24 @@
   <si>
     <t>Disease/Disease RMSE</t>
   </si>
+  <si>
+    <t>Feature-Enriched PMF</t>
+  </si>
+  <si>
+    <t>Baseline PMF</t>
+  </si>
+  <si>
+    <t>Gibbs Sampling</t>
+  </si>
+  <si>
+    <t>Ground Truth</t>
+  </si>
+  <si>
+    <t>Feature-Enriched Collective</t>
+  </si>
+  <si>
+    <t>Collective</t>
+  </si>
 </sst>
 </file>
 
@@ -209,8 +216,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -219,9 +230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -238,2546 +253,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test Error v.s. Training</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Epochs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rmse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.8135356470999066E-2"/>
-                  <c:y val="-0.12037037037037036"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Feature-Enriched</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$H$10:$H$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$I$10:$I$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.221</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.218</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.215</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="117297616"/>
-        <c:axId val="280496576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="117297616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" i="0"/>
-                  <a:t>Training</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" i="0" baseline="0"/>
-                  <a:t> Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" i="0"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="280496576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="280496576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.15000000000000002"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>RMSE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="117297616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test Error</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> v.s. Latent Dimension</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13178937007874"/>
-          <c:y val="0.17171296296296301"/>
-          <c:w val="0.79132108486439201"/>
-          <c:h val="0.62271617089530495"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$D$10:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature-Enriched</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$C$10:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.19143299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19167000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.199131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20394899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.213312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22966600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25065199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.291715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bayesian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$E$10:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>0.335845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29108600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30251499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28957500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29224800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29837599999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29299700000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31101000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28689100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$D$10:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature-Enriched</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$C$10:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.19143299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19167000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.199131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20394899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.213312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22966600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25065199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.291715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bayesian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$E$10:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>0.335845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29108600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30251499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28957500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29224800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29837599999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29299700000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31101000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28689100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$D$10:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature-Enriched</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$C$10:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.19143299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19167000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.199131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20394899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.213312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22966600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25065199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.291715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bayesian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$E$10:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>0.335845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29108600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30251499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28957500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29224800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29837599999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29299700000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31101000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28689100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8850574712643785E-2"/>
-                  <c:y val="0.1388888888888889"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C1DD2502-38B5-404C-A0F0-2044F91F5822}" type="SERIESNAME">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$D$10:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature-Enriched</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15901325911847225"/>
-                  <c:y val="0.14585629921259841"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Feature-Enriched</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.19862068965517238"/>
-                      <c:h val="0.11104184893554971"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$C$10:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.19143299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19167000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.199131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20394899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.213312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22966600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25065199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.291715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>midway!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bayesian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.2776673293572004E-2"/>
-                  <c:y val="-7.476635514018691E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Gibbs Sampling</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>midway!$B$10:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>midway!$E$10:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>0.335845</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29108600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30251499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28957500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29224800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29837599999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29299700000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31101000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28689100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="280498536"/>
-        <c:axId val="280498144"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="280498536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" i="1"/>
-                  <a:t>d</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="280498144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="280498144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>RMSE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="280498536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2831,26 +306,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2894,31 +349,31 @@
                   <c:v>1.059186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88653999999999999</c:v>
+                  <c:v>0.88654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81830599999999998</c:v>
+                  <c:v>0.818306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80123800000000001</c:v>
+                  <c:v>0.801238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79667600000000005</c:v>
+                  <c:v>0.796676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79470399999999997</c:v>
+                  <c:v>0.794704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79343200000000003</c:v>
+                  <c:v>0.793432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79246899999999998</c:v>
+                  <c:v>0.792469</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.791709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79110999999999998</c:v>
+                  <c:v>0.79111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,34 +413,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0206919999999999</c:v>
+                  <c:v>1.020692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90793100000000004</c:v>
+                  <c:v>0.907931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84635300000000002</c:v>
+                  <c:v>0.846353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82022300000000004</c:v>
+                  <c:v>0.820223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81001800000000002</c:v>
+                  <c:v>0.810018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80570299999999995</c:v>
+                  <c:v>0.805703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80351399999999995</c:v>
+                  <c:v>0.803514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80213800000000002</c:v>
+                  <c:v>0.802138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80112300000000003</c:v>
+                  <c:v>0.801123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80031099999999999</c:v>
+                  <c:v>0.800311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,34 +480,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0076799999999999</c:v>
+                  <c:v>1.00768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84590799999999999</c:v>
+                  <c:v>0.845908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80652900000000005</c:v>
+                  <c:v>0.806529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79991000000000001</c:v>
+                  <c:v>0.79991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79737800000000003</c:v>
+                  <c:v>0.797378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79561899999999997</c:v>
+                  <c:v>0.795619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79424099999999997</c:v>
+                  <c:v>0.794241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79313400000000001</c:v>
+                  <c:v>0.793134</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.792238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79151000000000005</c:v>
+                  <c:v>0.79151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,34 +547,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96964300000000003</c:v>
+                  <c:v>0.969643</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.855433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81827899999999998</c:v>
+                  <c:v>0.818279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80965500000000001</c:v>
+                  <c:v>0.809655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80680200000000002</c:v>
+                  <c:v>0.806802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80500300000000002</c:v>
+                  <c:v>0.805003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80350200000000005</c:v>
+                  <c:v>0.803502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80219099999999999</c:v>
+                  <c:v>0.802191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80105300000000002</c:v>
+                  <c:v>0.801053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80007499999999998</c:v>
+                  <c:v>0.800075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,34 +614,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76160000000000005</c:v>
+                  <c:v>0.7616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,12 +656,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280491872"/>
-        <c:axId val="280497360"/>
+        <c:axId val="2074886648"/>
+        <c:axId val="2074893336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280491872"/>
+        <c:axId val="2074886648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,26 +703,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -3305,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280497360"/>
+        <c:crossAx val="2074893336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3313,10 +749,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280497360"/>
+        <c:axId val="2074893336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.75000000000000011"/>
+          <c:min val="0.75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3369,26 +805,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3421,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280491872"/>
+        <c:crossAx val="2074886648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3502,7 +918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3537,11 +953,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
+              <a:t>Synthetic Test Error v.s.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> on Synthetic Data</a:t>
+              <a:t> Training Epochs</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3556,26 +972,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3592,7 +988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>collective</c:v>
+                  <c:v>Feature-Enriched Collective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3616,19 +1012,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3070250000000001</c:v>
+                  <c:v>1.307025</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.260345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1964140000000001</c:v>
+                  <c:v>1.196414</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.137818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0985100000000001</c:v>
+                  <c:v>1.09851</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.072916</c:v>
@@ -3643,7 +1039,7 @@
                   <c:v>1.042241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0390330000000001</c:v>
+                  <c:v>1.039033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3659,7 +1055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>collective w/o features</c:v>
+                  <c:v>Collective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3683,7 +1079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2922880000000001</c:v>
+                  <c:v>1.292288</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.237096</c:v>
@@ -3698,7 +1094,7 @@
                   <c:v>1.121475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0988960000000001</c:v>
+                  <c:v>1.098896</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.082389</c:v>
@@ -3707,10 +1103,10 @@
                   <c:v>1.07053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0620750000000001</c:v>
+                  <c:v>1.062075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0560510000000001</c:v>
+                  <c:v>1.056051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,7 +1122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>not collective</c:v>
+                  <c:v>Feature-Enriched</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3759,25 +1155,25 @@
                   <c:v>1.151608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0980350000000001</c:v>
+                  <c:v>1.098035</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.068419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0530029999999999</c:v>
+                  <c:v>1.053003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0453779999999999</c:v>
+                  <c:v>1.045378</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.041642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0397419999999999</c:v>
+                  <c:v>1.039742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0386869999999999</c:v>
+                  <c:v>1.038687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,7 +1189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>not collective w/o features</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3820,7 +1216,7 @@
                   <c:v>1.258624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1915819999999999</c:v>
+                  <c:v>1.191582</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.139777</c:v>
@@ -3829,22 +1225,22 @@
                   <c:v>1.103332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0797509999999999</c:v>
+                  <c:v>1.079751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0653999999999999</c:v>
+                  <c:v>1.0654</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.05697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0520799999999999</c:v>
+                  <c:v>1.05208</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.049223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0475110000000001</c:v>
+                  <c:v>1.047511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,7 +1256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ground truth</c:v>
+                  <c:v>Ground Truth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3884,34 +1280,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0028999999999999</c:v>
+                  <c:v>1.0029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,12 +1322,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280495400"/>
-        <c:axId val="280492264"/>
+        <c:axId val="2074946856"/>
+        <c:axId val="2074953528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280495400"/>
+        <c:axId val="2074946856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,26 +1369,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -4030,7 +1407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280492264"/>
+        <c:crossAx val="2074953528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4038,10 +1415,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280492264"/>
+        <c:axId val="2074953528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4094,26 +1471,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4146,7 +1503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280495400"/>
+        <c:crossAx val="2074946856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,6 +1584,1150 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MovieLens Test Error v.s. Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.135246565536718"/>
+          <c:y val="0.201979808217042"/>
+          <c:w val="0.830764554181661"/>
+          <c:h val="0.592115069774694"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>movielens!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched PMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>movielens!$H$10:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>movielens!$I$10:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.204</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2072698552"/>
+        <c:axId val="2074682904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2072698552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="0"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" i="0" baseline="0"/>
+                  <a:t> Epoch</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074682904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2074682904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072698552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.627489238191428"/>
+          <c:y val="0.499589537693927"/>
+          <c:w val="0.322403631740134"/>
+          <c:h val="0.090412649752498"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MovieLens Test Error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v.s. Latent Dimension</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.791321084864392"/>
+          <c:h val="0.587120948034999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>movielens!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature-Enriched PMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>movielens!$C$10:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.191433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.203949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.229666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.250652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>movielens!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline PMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>movielens!$D$10:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>movielens!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gibbs Sampling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>movielens!$E$10:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0.335845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.291086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.289575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.292248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2084998152"/>
+        <c:axId val="2074842312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2084998152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>d</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074842312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2074842312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2084998152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -4262,7 +2763,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gene-Disease Error </a:t>
+              <a:t>Gene/Disease Test Error v.s. Training Epochs </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4276,26 +2777,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4339,19 +2820,19 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50280000000000002</c:v>
+                  <c:v>0.5028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49919999999999998</c:v>
+                  <c:v>0.4992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50229999999999997</c:v>
+                  <c:v>0.5023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49850000000000005</c:v>
+                  <c:v>0.4985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50180000000000002</c:v>
+                  <c:v>0.5018</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.498</c:v>
@@ -4397,28 +2878,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.50609999999999999</c:v>
+                  <c:v>0.5061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50940000000000007</c:v>
+                  <c:v>0.5094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50679999999999992</c:v>
+                  <c:v>0.5068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50890000000000002</c:v>
+                  <c:v>0.5089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51190000000000002</c:v>
+                  <c:v>0.5119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51639999999999997</c:v>
+                  <c:v>0.5164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51950000000000007</c:v>
+                  <c:v>0.5195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52829999999999999</c:v>
+                  <c:v>0.5283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,12 +2914,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338286912"/>
-        <c:axId val="338283776"/>
+        <c:axId val="2075000312"/>
+        <c:axId val="2075006808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338286912"/>
+        <c:axId val="2075000312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,26 +2961,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4536,7 +2998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338283776"/>
+        <c:crossAx val="2075006808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4544,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338283776"/>
+        <c:axId val="2075006808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,26 +3061,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4651,7 +3093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338286912"/>
+        <c:crossAx val="2075000312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4767,8 +3209,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gene-Gene Error </a:t>
+              <a:t>Gene/Gene</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Test Error v.s. Training Epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4781,26 +3228,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4841,10 +3268,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.85389999999999999</c:v>
+                  <c:v>0.8539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79890000000000005</c:v>
+                  <c:v>0.7989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.746</c:v>
@@ -4856,13 +3283,13 @@
                   <c:v>0.6482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60470000000000002</c:v>
+                  <c:v>0.6047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56669999999999998</c:v>
+                  <c:v>0.5667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53759999999999997</c:v>
+                  <c:v>0.5376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,28 +3329,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.89590000000000003</c:v>
+                  <c:v>0.8959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88029999999999997</c:v>
+                  <c:v>0.8803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86519999999999997</c:v>
+                  <c:v>0.8652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85040000000000004</c:v>
+                  <c:v>0.8504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82199999999999995</c:v>
+                  <c:v>0.822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80840000000000001</c:v>
+                  <c:v>0.8084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79520000000000002</c:v>
+                  <c:v>0.7952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,12 +3365,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336333256"/>
-        <c:axId val="336335608"/>
+        <c:axId val="2075048632"/>
+        <c:axId val="2075055128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="336333256"/>
+        <c:axId val="2075048632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4984,26 +3412,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5041,7 +3449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336335608"/>
+        <c:crossAx val="2075055128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5049,9 +3457,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336335608"/>
+        <c:axId val="2075055128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5104,26 +3513,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5156,7 +3545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336333256"/>
+        <c:crossAx val="2075048632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5272,16 +3661,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Disease-Disease</a:t>
+              <a:t>Disease/Disease</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Test Error v.s. Training Epochs</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5294,26 +3680,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5354,25 +3720,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.93840000000000001</c:v>
+                  <c:v>0.9384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67779999999999996</c:v>
+                  <c:v>0.6778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44769999999999999</c:v>
+                  <c:v>0.4477</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.162</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11219999999999999</c:v>
+                  <c:v>0.1122</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1239</c:v>
@@ -5418,25 +3784,25 @@
                   <c:v>1.0869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93210000000000004</c:v>
+                  <c:v>0.9321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78100000000000003</c:v>
+                  <c:v>0.781</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49719999999999998</c:v>
+                  <c:v>0.4972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37140000000000001</c:v>
+                  <c:v>0.3714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26490000000000002</c:v>
+                  <c:v>0.2649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18640000000000001</c:v>
+                  <c:v>0.1864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5451,12 +3817,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336333648"/>
-        <c:axId val="336334824"/>
+        <c:axId val="2075096072"/>
+        <c:axId val="2075102568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="336333648"/>
+        <c:axId val="2075096072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5497,26 +3864,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5554,7 +3901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336334824"/>
+        <c:crossAx val="2075102568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5562,7 +3909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336334824"/>
+        <c:axId val="2075102568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5617,26 +3964,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5669,7 +3996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336333648"/>
+        <c:crossAx val="2075096072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9090,73 +7417,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -9220,6 +7480,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9227,13 +7554,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9261,9 +7588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9289,13 +7616,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9574,7 +7901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9582,17 +7909,1039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>1.059186</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0206919999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0076799999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.96964300000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="str">
+        <f>RIGHT(I4,8)</f>
+        <v>1.292288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.3070250000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.2922880000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.288605</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.258624</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>0.88653999999999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.90793100000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.84590799999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.855433</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H23" si="0">RIGHT(I5,8)</f>
+        <v>1.237096</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.260345</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.237096</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.223889</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.1915819999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>0.81830599999999998</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.84635300000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.80652900000000005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81827899999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>1.189964</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.1964140000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.189964</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.151608</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.139777</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>0.80123800000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.82022300000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79991000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.80965500000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>1.151505</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.137818</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.151505</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.0980350000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.103332</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>0.79667600000000005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.81001800000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.79737800000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80680200000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>1.121475</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.0985100000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.121475</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.068419</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.0797509999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>0.79470399999999997</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.80570299999999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.79561899999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.80500300000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>1.098896</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.072916</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.0988960000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.0530029999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.0653999999999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
+        <v>0.79343200000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.80351399999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79424099999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.80350200000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>1.082389</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.057115</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.082389</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.0453779999999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.05697</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
+        <v>0.79246899999999998</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.80213800000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.79313400000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.80219099999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>1.070530</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.047725</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.07053</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.041642</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.0520799999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2">
+        <v>0.791709</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.80112300000000003</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.792238</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.80105300000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>1.062075</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.042241</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.0620750000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.0397419999999999</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.049223</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2">
+        <v>0.79110999999999998</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.80031099999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.79151000000000005</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.80007499999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>1.056051</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.0390330000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.0560510000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.0386869999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.0475110000000001</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2">
+        <v>0.79064599999999996</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.79964400000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.79092200000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.79924099999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>1.051743</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.0371220000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.0517430000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.0380180000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.046435</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
+        <v>0.79029799999999994</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.79044999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.79853700000000005</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>1.048639</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.0359419999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.0486390000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.037525</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.0457110000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2">
+        <v>0.79005499999999995</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.79866700000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.79008</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.79794900000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.046385</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.035177</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.0463849999999999</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.0371159999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.0451809999999999</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2">
+        <v>0.78990499999999997</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.79833600000000005</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.79746399999999995</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.044731</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.034648</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.0447310000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.0367500000000001</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.0447580000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2">
+        <v>0.78983999999999999</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79810199999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.78959900000000005</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.79707300000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.043504</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.0342560000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.043504</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.0364120000000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.044395</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2">
+        <v>0.78985499999999997</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.79795899999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.78947100000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.79676599999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>1.042583</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.0339469999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.042583</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.0360940000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.0440689999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2">
+        <v>0.78994299999999995</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.797902</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.78940999999999995</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.79653700000000005</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>1.041882</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.0336890000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.041882</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.0357940000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0437639999999999</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2">
+        <v>0.79010100000000005</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.79792600000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.78940999999999995</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.79637899999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>1.041341</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.0334650000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.0413410000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.0355129999999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.043477</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2">
+        <v>0.79032400000000003</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.79802600000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.78946700000000003</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.796288</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>1.040916</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.033266</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.040916</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.03525</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.0432030000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2">
+        <v>0.79060900000000001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.79820100000000005</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.78957699999999997</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.79625999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>1.040578</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.033088</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.040578</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.035005</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.0429409999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="G43" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
@@ -9600,27 +8949,27 @@
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>1</v>
       </c>
@@ -9637,7 +8986,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11">
         <f>B10+1</f>
         <v>2</v>
@@ -9659,7 +9008,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12">
         <f t="shared" ref="B12:B19" si="1">B11+1</f>
         <v>3</v>
@@ -9681,7 +9030,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9703,7 +9052,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9725,7 +9074,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9747,7 +9096,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9769,7 +9118,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9791,7 +9140,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9813,7 +9162,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9832,7 +9181,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="H20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9841,7 +9190,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="H21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9850,7 +9199,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="H22">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9859,7 +9208,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="H23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9868,7 +9217,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="H24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9877,7 +9226,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="H25">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9886,7 +9235,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="H26">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9895,7 +9244,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="H27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9904,7 +9253,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="H28">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9913,7 +9262,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="H29">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9922,7 +9271,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="H30">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9931,7 +9280,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="H31">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9940,7 +9289,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="H32">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9949,7 +9298,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9">
       <c r="H33">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9958,7 +9307,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9">
       <c r="H34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9967,7 +9316,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9">
       <c r="H35">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9976,7 +9325,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9">
       <c r="H36">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9985,7 +9334,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9">
       <c r="H37">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9994,7 +9343,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9">
       <c r="H38">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10003,7 +9352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9">
       <c r="H39">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10012,7 +9361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:9">
       <c r="H40">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10021,7 +9370,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:9">
       <c r="H41">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10030,7 +9379,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:9">
       <c r="H42">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10039,7 +9388,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:9">
       <c r="H43">
         <f t="shared" ref="H43:H59" si="2">H42+1</f>
         <v>34</v>
@@ -10048,7 +9397,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:9">
       <c r="H44">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10057,7 +9406,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:9">
       <c r="H45">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10066,7 +9415,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:9">
       <c r="H46">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10075,7 +9424,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:9">
       <c r="H47">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10084,7 +9433,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:9">
       <c r="H48">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -10093,7 +9442,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9">
       <c r="H49">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -10102,7 +9451,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9">
       <c r="H50">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -10111,7 +9460,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:9">
       <c r="H51">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -10120,7 +9469,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:9">
       <c r="H52">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -10129,7 +9478,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:9">
       <c r="H53">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -10138,7 +9487,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:9">
       <c r="H54">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -10147,7 +9496,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:9">
       <c r="H55">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -10156,7 +9505,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:9">
       <c r="H56">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -10165,7 +9514,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:9">
       <c r="H57">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -10174,7 +9523,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:9">
       <c r="H58">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -10183,7 +9532,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:9">
       <c r="H59">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -10204,1077 +9553,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1.059186</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.0206919999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0076799999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.96964300000000003</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="str">
-        <f>RIGHT(I4,8)</f>
-        <v>1.292288</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.3070250000000001</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.2922880000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.288605</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1.258624</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.88653999999999999</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.90793100000000004</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.84590799999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.855433</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="str">
-        <f t="shared" ref="H5:H23" si="0">RIGHT(I5,8)</f>
-        <v>1.237096</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.260345</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.237096</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.223889</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1.1915819999999999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.81830599999999998</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.84635300000000002</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.80652900000000005</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81827899999999998</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>1.189964</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.1964140000000001</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.189964</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1.151608</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1.139777</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.80123800000000001</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.82022300000000004</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.79991000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.80965500000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>1.151505</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.137818</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.151505</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.0980350000000001</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1.103332</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.79667600000000005</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.81001800000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.79737800000000003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.80680200000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>1.121475</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.0985100000000001</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.121475</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.068419</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1.0797509999999999</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.79470399999999997</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.80570299999999995</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.79561899999999997</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.80500300000000002</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>1.098896</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.072916</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.0988960000000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.0530029999999999</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.0653999999999999</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.79343200000000003</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.80351399999999995</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.79424099999999997</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.80350200000000005</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>1.082389</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.057115</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.082389</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.0453779999999999</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1.05697</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.79246899999999998</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.80213800000000002</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.79313400000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.80219099999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>1.070530</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1.047725</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.07053</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1.041642</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1.0520799999999999</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.791709</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.80112300000000003</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.792238</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.80105300000000002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>1.062075</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.042241</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1.0620750000000001</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1.0397419999999999</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1.049223</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.79110999999999998</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.80031099999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.79151000000000005</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.80007499999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>1.056051</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1.0390330000000001</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1.0560510000000001</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1.0386869999999999</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1.0475110000000001</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.79064599999999996</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.79964400000000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.79092200000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.79924099999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>1.051743</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.0371220000000001</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.0517430000000001</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1.0380180000000001</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1.046435</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.79029799999999994</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.79910000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.79044999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.79853700000000005</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>1.048639</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1.0359419999999999</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1.0486390000000001</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1.037525</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1.0457110000000001</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.79005499999999995</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.79866700000000002</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.79008</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.79794900000000002</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>1.046385</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1.035177</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.0463849999999999</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.0371159999999999</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1.0451809999999999</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.78990499999999997</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.79833600000000005</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.78979999999999995</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.79746399999999995</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>1.044731</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.034648</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.0447310000000001</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1.0367500000000001</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1.0447580000000001</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.78983999999999999</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.79810199999999998</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.78959900000000005</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.79707300000000003</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.043504</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.0342560000000001</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.043504</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1.0364120000000001</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1.044395</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.78985499999999997</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.79795899999999997</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.78947100000000003</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.79676599999999997</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>1.042583</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.0339469999999999</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1.042583</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1.0360940000000001</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1.0440689999999999</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.78994299999999995</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.797902</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.78940999999999995</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.79653700000000005</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>1.041882</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.0336890000000001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1.041882</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1.0357940000000001</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1.0437639999999999</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.79010100000000005</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.79792600000000002</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.78940999999999995</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.79637899999999995</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>1.041341</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.0334650000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1.0413410000000001</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1.0355129999999999</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1.043477</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.79032400000000003</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.79802600000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.78946700000000003</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.796288</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>1.040916</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.033266</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1.040916</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1.03525</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1.0432030000000001</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.79060900000000001</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.79820100000000005</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.78957699999999997</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.79625999999999997</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.76160000000000005</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>1.040578</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1.033088</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1.040578</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1.035005</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1.0429409999999999</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1.0028999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="G43" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>0.5</v>
       </c>
@@ -11294,7 +9626,7 @@
         <v>1.0869</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>0.50280000000000002</v>
       </c>
@@ -11314,7 +9646,7 @@
         <v>0.93210000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>0.49919999999999998</v>
       </c>
@@ -11334,7 +9666,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>0.50229999999999997</v>
       </c>
@@ -11354,7 +9686,7 @@
         <v>0.6351</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>0.49850000000000005</v>
       </c>
@@ -11374,7 +9706,7 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>0.50180000000000002</v>
       </c>
@@ -11394,7 +9726,7 @@
         <v>0.37140000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>0.498</v>
       </c>
@@ -11414,7 +9746,7 @@
         <v>0.26490000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>0.498</v>
       </c>
@@ -11437,5 +9769,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="2" r:id="rId1"/>
@@ -287,672 +287,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> on Synthetic Data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>synthetic!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>collective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>synthetic!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.059186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88654</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.818306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.801238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.796676</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.794704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.793432</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.792469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.791709</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>synthetic!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>collective w/o features</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>synthetic!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.020692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.907931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.846353</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.820223</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.810018</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.805703</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.803514</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.802138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.801123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.800311</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>synthetic!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>not collective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>synthetic!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.00768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.845908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.806529</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.797378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.795619</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.794241</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.793134</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.792238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>synthetic!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>not collective w/o features</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>synthetic!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.969643</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.855433</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.818279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.809655</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.806802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.805003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.803502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.802191</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.801053</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.800075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>synthetic!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ground truth</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>synthetic!$E$4:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7616</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2074886648"/>
-        <c:axId val="2074893336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2074886648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Training Epoch</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2074893336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2074893336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.75"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>RMSE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2074886648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Synthetic Test Error v.s.</a:t>
             </a:r>
             <a:r>
@@ -1556,12 +890,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1584,7 +913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2247,7 +1576,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2728,7 +2057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3146,12 +2475,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3174,7 +2498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3598,12 +2922,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3626,7 +2945,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4049,12 +3368,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4078,46 +3392,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4833,7 +4107,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5349,7 +4623,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5865,7 +5139,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6381,7 +5655,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6897,566 +6171,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7471,7 +6199,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7554,13 +6282,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7582,15 +6310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7614,15 +6342,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7911,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8933,7 +7661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -9557,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/output/proj-results.xlsx
+++ b/output/proj-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="2" r:id="rId1"/>
@@ -341,10 +341,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>synthetic!$L$4:$L$13</c:f>
+              <c:f>synthetic!$L$4:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.307025</c:v>
                 </c:pt>
@@ -374,6 +374,36 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.039033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.037122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.035942</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.035177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.034648</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.034256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.033947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.033689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.033465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.033266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.033088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,10 +438,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>synthetic!$M$4:$M$13</c:f>
+              <c:f>synthetic!$M$4:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.292288</c:v>
                 </c:pt>
@@ -441,6 +471,36 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.056051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.051743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.048639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.046385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.044731</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.043504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.042583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.041882</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.041341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.040916</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.040578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,10 +535,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>synthetic!$N$4:$N$13</c:f>
+              <c:f>synthetic!$N$4:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.288605</c:v>
                 </c:pt>
@@ -508,6 +568,36 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.038687</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.038018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.037525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.037116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.03675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.036412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.036094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.035794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.035513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.03525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.035005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,10 +632,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>synthetic!$O$4:$O$13</c:f>
+              <c:f>synthetic!$O$4:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.258624</c:v>
                 </c:pt>
@@ -575,6 +665,36 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.047511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.046435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.045711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.045181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.044758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.044395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.044069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.043764</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.043477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.043203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.042941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,10 +729,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>synthetic!$P$4:$P$13</c:f>
+              <c:f>synthetic!$P$4:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0029</c:v>
                 </c:pt>
@@ -641,6 +761,36 @@
                   <c:v>1.0029</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0029</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.0029</c:v>
                 </c:pt>
               </c:numCache>
@@ -6639,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7661,7 +7811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -8285,7 +8435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
